--- a/resource/testdata/trans/gateway/qrcode/unionMainSweep.xlsx
+++ b/resource/testdata/trans/gateway/qrcode/unionMainSweep.xlsx
@@ -45,19 +45,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"db_search_delay_seconds":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"000000","message":"__checkNotEmpty()__","data":{"rpCd":"000000","rpDesc":"__checkNotEmpty()__","qrCodeInfo":"__checkStartWith(https://)__"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"accUserNo":"4000","trxChnNo":"2000","trxTyp":"1201","trxId":"__createEasyUuid(16)__","trxAmt":0.01,"mrchntNo":"900690258123328","mrchntNm":"合川区大宅门老火锅餐饮店","productDesc":"自动化测试用例1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"channel_pay_trans":[{"id":"__checkLong()__","access_user_no":"4000","merchant_no":"900690258123328","merchant_name":"合川区大宅门老火锅餐饮店","trans_no":"_trxId_","trans_type":"1201","trans_amount":0.01,"trans_receice_time":"__checkNearlyTime(10,s)__","trans_status":1,"trans_reply_code":"000000","trans_reply_desc":"SUCCESS","trans_reply_time":"__checkNearlyTime(10,s)__","trans_settle_time":"__checkNextWorkDayStr(yyyyMMdd)__","check_flag":1,"channel_code":"2000","channel_order_no":"__checkChannelOrderNoNotRepeat()__","channel_trans_type":"1201","channel_trans_amount":"1","channel_trans_time":"__checkNearlyTimeStr(yyyyMMddHHmmss,10,s)","channel_reply_time":"__checkNearlyTimeStr(yyyyMMddHHmmss)","channel_reply_code":"00","channel_reply_desc":"__checkNotEmpty()__","delete_status":0,"settle_date_by_search":"__checkNextWorkDay()__","debit_tag":1,"terminal_no":"__checkNotEmpty()__","pay_method":2}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"statusCode":"200","data":{"code":"000000","message":"__checkNotEmpty()__","data":{"rpCd":"000000","rpDesc":"__checkNotEmpty()__","qrCodeInfo":"__checkStartWith(https://)__"}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accUsrNo":"4000","trxChnNo":"2000","trxTyp":"1201","trxId":"__createEasyUuid(16)__","trxAmt":0.01,"mrchntNo":"900690258123328","mrchntNm":"合川区大宅门老火锅餐饮店","productDesc":"自动化测试用例1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelKey":"0123456789ABCDEFFEDCBA9876543210"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,10 +458,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
